--- a/Reports/MarketBeatRank/2019/T_INV19_ROBI100_PER/QNST.xlsx
+++ b/Reports/MarketBeatRank/2019/T_INV19_ROBI100_PER/QNST.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9950" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22775" uniqueCount="70">
   <si>
     <t>Mar_24</t>
   </si>
@@ -189,6 +189,39 @@
   </si>
   <si>
     <t>6/5/2019,Upgrades,Hold -&gt; Buy,</t>
+  </si>
+  <si>
+    <t>Jun_16</t>
+  </si>
+  <si>
+    <t>Jun_24</t>
+  </si>
+  <si>
+    <t>Jun_30</t>
+  </si>
+  <si>
+    <t>Jul_07</t>
+  </si>
+  <si>
+    <t>Jul_17</t>
+  </si>
+  <si>
+    <t>7/17/2019,Downgrades,Hold -&gt; Strong Sell,</t>
+  </si>
+  <si>
+    <t>Jul_23</t>
+  </si>
+  <si>
+    <t>Aug_04</t>
+  </si>
+  <si>
+    <t>Aug_25</t>
+  </si>
+  <si>
+    <t>8/9/2019,Set Price Target,Buy,$19.00</t>
+  </si>
+  <si>
+    <t>Sep_08</t>
   </si>
 </sst>
 </file>
@@ -245,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="519">
+  <cellXfs count="807">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -726,6 +759,294 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -753,7 +1074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -793,62 +1114,98 @@
     <col min="16" max="16" customWidth="true" width="8.0" collapsed="true"/>
     <col min="17" max="17" customWidth="true" width="8.0" collapsed="true"/>
     <col min="18" max="18" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="8.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="V1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="W1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="X1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Y1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Z1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="AA1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="AB1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -910,6 +1267,33 @@
       <c r="S2" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -969,6 +1353,33 @@
       <c r="S3" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -1028,6 +1439,33 @@
       <c r="S4" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -1045,8 +1483,8 @@
       <c r="E5" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>2</v>
+      <c r="F5" s="650" t="s">
+        <v>64</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>2</v>
@@ -1057,34 +1495,61 @@
       <c r="I5" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="240" t="s">
+      <c r="J5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="240" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="120" t="s">
+      <c r="T5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="60" t="s">
+      <c r="X5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="Z5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="S5" s="0" t="s">
+      <c r="AA5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1146,6 +1611,33 @@
       <c r="S6" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -1205,6 +1697,33 @@
       <c r="S7" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
@@ -1264,6 +1783,33 @@
       <c r="S8" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -1323,6 +1869,33 @@
       <c r="S9" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
@@ -1382,6 +1955,33 @@
       <c r="S10" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -1441,6 +2041,33 @@
       <c r="S11" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -1500,6 +2127,33 @@
       <c r="S12" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1559,6 +2213,33 @@
       <c r="S13" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -1618,6 +2299,33 @@
       <c r="S14" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -1677,6 +2385,33 @@
       <c r="S15" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
@@ -1736,6 +2471,33 @@
       <c r="S16" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -1795,6 +2557,33 @@
       <c r="S17" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1854,6 +2643,33 @@
       <c r="S18" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1913,6 +2729,33 @@
       <c r="S19" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1972,6 +2815,33 @@
       <c r="S20" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -2031,56 +2901,83 @@
       <c r="S21" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="507" t="s">
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="507" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="347" t="s">
+      <c r="L22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22" s="347" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="M22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="N22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="P22" s="0" t="s">
-        <v>2</v>
-      </c>
       <c r="Q22" s="0" t="s">
         <v>2</v>
       </c>
@@ -2088,6 +2985,33 @@
         <v>2</v>
       </c>
       <c r="S22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2149,6 +3073,33 @@
       <c r="S23" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -2208,6 +3159,33 @@
       <c r="S24" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -2267,6 +3245,33 @@
       <c r="S25" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -2275,8 +3280,8 @@
       <c r="B26" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>2</v>
+      <c r="C26" s="767" t="s">
+        <v>68</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>2</v>
@@ -2324,6 +3329,33 @@
         <v>2</v>
       </c>
       <c r="S26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2385,6 +3417,33 @@
       <c r="S27" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -2444,6 +3503,33 @@
       <c r="S28" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -2503,6 +3589,33 @@
       <c r="S29" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="T29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB29" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -2553,6 +3666,33 @@
       <c r="P30" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="Q30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -2603,6 +3743,33 @@
       <c r="P31" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="Q31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="R31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="T31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="V31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="W31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="X31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -2626,6 +3793,33 @@
       <c r="G32" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="H32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -2647,6 +3841,33 @@
         <v>2</v>
       </c>
       <c r="G33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="P33" s="0" t="s">
         <v>2</v>
       </c>
     </row>
